--- a/SurveyData/School_1b_2021.xlsx
+++ b/SurveyData/School_1b_2021.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Word_Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sent_Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2123,10 +2123,10 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>52.14570617675781</v>
+        <v>52.1457061767578</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.8802947998046875</v>
+        <v>-0.8802947998046881</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
@@ -2406,10 +2406,10 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>52.14570617675781</v>
+        <v>52.1457061767578</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.8802947998046875</v>
+        <v>-0.8802947998046881</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG4" t="n">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ4" t="n">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>51.49639892578125</v>
+        <v>51.4963989257813</v>
       </c>
       <c r="O5" t="n">
         <v>-0.122406005859375</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG5" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ5" t="n">
@@ -2963,10 +2963,10 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O6" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ6" t="n">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
         </is>
       </c>
       <c r="BG7" t="n">
@@ -3651,10 +3651,10 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O8" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options,Other, please specify below:</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options,Other, please specify below:</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options,Other, please specify below:</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options,Other, please specify below:</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
@@ -4018,7 +4018,7 @@
         <v>51.068603515625</v>
       </c>
       <c r="O9" t="n">
-        <v>-4.020294189453125</v>
+        <v>-4.02029418945313</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O10" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG10" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ10" t="n">
@@ -4456,10 +4456,10 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>50.38810729980469</v>
+        <v>50.3881072998047</v>
       </c>
       <c r="O11" t="n">
-        <v>-4.132400512695312</v>
+        <v>-4.13240051269531</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG11" t="n">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ11" t="n">
@@ -4785,10 +4785,10 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>52.00100708007812</v>
+        <v>52.0010070800781</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.2270050048828125</v>
+        <v>-0.227005004882812</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG12" t="n">
@@ -5149,10 +5149,10 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O13" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG13" t="n">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ13" t="n">
@@ -5498,10 +5498,10 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>50.47880554199219</v>
+        <v>50.4788055419922</v>
       </c>
       <c r="O14" t="n">
-        <v>-3.544601440429688</v>
+        <v>-3.54460144042969</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG14" t="n">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>51.49639892578125</v>
+        <v>51.4963989257813</v>
       </c>
       <c r="O15" t="n">
         <v>-0.122406005859375</v>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain organically sourced ingredients,contain  seasonally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain organically sourced ingredients,contain  seasonally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ15" t="n">
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>51.49639892578125</v>
+        <v>51.4963989257813</v>
       </c>
       <c r="O16" t="n">
         <v>-0.122406005859375</v>
@@ -6243,10 +6243,10 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>50.52589416503906</v>
+        <v>50.5258941650391</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.616500854492188</v>
+        <v>-3.61650085449219</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
@@ -6594,7 +6594,7 @@
         <v>50.7449951171875</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.852401733398438</v>
+        <v>-1.85240173339844</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG18" t="n">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ18" t="n">
@@ -6915,10 +6915,10 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),contain locally sourced ingredients,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),contain locally sourced ingredients,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ19" t="n">
@@ -7254,10 +7254,10 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="BE20" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG20" t="n">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ20" t="n">
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O21" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -7858,10 +7858,10 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>50.73739624023438</v>
+        <v>50.7373962402344</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.470794677734375</v>
+        <v>-3.47079467773437</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="BE22" t="inlineStr">
         <is>
-          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits)</t>
+          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
         </is>
       </c>
       <c r="BG22" t="n">
@@ -8059,7 +8059,7 @@
         <v>51.2279052734375</v>
       </c>
       <c r="O23" t="n">
-        <v>-2.526092529296875</v>
+        <v>-2.52609252929687</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="BE23" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG23" t="n">
@@ -8289,10 +8289,10 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>50.73739624023438</v>
+        <v>50.7373962402344</v>
       </c>
       <c r="O24" t="n">
-        <v>-3.470794677734375</v>
+        <v>-3.47079467773437</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients</t>
         </is>
       </c>
       <c r="BJ24" t="n">
@@ -8507,10 +8507,10 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>50.38810729980469</v>
+        <v>50.3881072998047</v>
       </c>
       <c r="O25" t="n">
-        <v>-4.132400512695312</v>
+        <v>-4.13240051269531</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="BE25" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG25" t="n">
@@ -8730,10 +8730,10 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>50.73210144042969</v>
+        <v>50.7321014404297</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.529998779296875</v>
+        <v>-3.52999877929687</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="BE26" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG26" t="n">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ26" t="n">
@@ -9049,7 +9049,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>51.64840698242188</v>
+        <v>51.6484069824219</v>
       </c>
       <c r="O27" t="n">
         <v>-0.49310302734375</v>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ27" t="n">
@@ -9247,10 +9247,10 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>50.43809509277344</v>
+        <v>50.4380950927734</v>
       </c>
       <c r="O28" t="n">
-        <v>-4.082992553710938</v>
+        <v>-4.08299255371094</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>50.73210144042969</v>
+        <v>50.7321014404297</v>
       </c>
       <c r="O29" t="n">
-        <v>-3.529998779296875</v>
+        <v>-3.52999877929687</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="BE29" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG29" t="n">
@@ -9634,10 +9634,10 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O30" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -9697,10 +9697,10 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O31" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="BE31" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG31" t="n">
@@ -10190,10 +10190,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>52.14570617675781</v>
+        <v>52.1457061767578</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.8802947998046875</v>
+        <v>-0.8802947998046881</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="BE36" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG36" t="n">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen</t>
         </is>
       </c>
       <c r="BJ36" t="n">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="BE37" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG37" t="n">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ37" t="n">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="BE40" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options,Other, please specify below:</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options,Other, please specify below:</t>
         </is>
       </c>
       <c r="BF40" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ40" t="n">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ42" t="n">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="BE43" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG43" t="n">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients</t>
         </is>
       </c>
       <c r="BJ43" t="n">
@@ -12413,10 +12413,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>50.73739624023438</v>
+        <v>50.7373962402344</v>
       </c>
       <c r="O44" t="n">
-        <v>-3.470794677734375</v>
+        <v>-3.47079467773437</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="BE44" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG44" t="n">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="BE46" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG46" t="n">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ46" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="BE48" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG48" t="n">
@@ -13534,7 +13534,7 @@
       </c>
       <c r="BE49" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG49" t="n">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ49" t="n">
@@ -13670,10 +13670,10 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>50.47799682617188</v>
+        <v>50.4779968261719</v>
       </c>
       <c r="O50" t="n">
-        <v>-3.518203735351562</v>
+        <v>-3.51820373535156</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -13999,10 +13999,10 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O51" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="BE51" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG51" t="n">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ51" t="n">
@@ -14329,10 +14329,10 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>50.73739624023438</v>
+        <v>50.7373962402344</v>
       </c>
       <c r="O53" t="n">
-        <v>-3.470794677734375</v>
+        <v>-3.47079467773437</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="BE53" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG53" t="n">
@@ -14562,10 +14562,10 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>51.43510437011719</v>
+        <v>51.4351043701172</v>
       </c>
       <c r="O54" t="n">
-        <v>-2.541900634765625</v>
+        <v>-2.54190063476562</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BK54" t="inlineStr">
@@ -14890,10 +14890,10 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O55" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -15103,10 +15103,10 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>50.47799682617188</v>
+        <v>50.4779968261719</v>
       </c>
       <c r="O56" t="n">
-        <v>-3.518203735351562</v>
+        <v>-3.51820373535156</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>50.5458984375</v>
       </c>
       <c r="O57" t="n">
-        <v>-3.534500122070312</v>
+        <v>-3.53450012207031</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
       </c>
       <c r="BE57" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer added-sugar free days</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer added-sugar free days</t>
         </is>
       </c>
       <c r="BG57" t="n">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ57" t="n">
@@ -15645,10 +15645,10 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>50.39889526367188</v>
+        <v>50.3988952636719</v>
       </c>
       <c r="O58" t="n">
-        <v>-4.172698974609375</v>
+        <v>-4.17269897460938</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="BE58" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer added-sugar free days</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer added-sugar free days</t>
         </is>
       </c>
       <c r="BG58" t="n">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ58" t="n">
@@ -15994,10 +15994,10 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>50.47880554199219</v>
+        <v>50.4788055419922</v>
       </c>
       <c r="O59" t="n">
-        <v>-3.544601440429688</v>
+        <v>-3.54460144042969</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ59" t="n">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>50.47799682617188</v>
+        <v>50.4779968261719</v>
       </c>
       <c r="O60" t="n">
-        <v>-3.518203735351562</v>
+        <v>-3.51820373535156</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BE60" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG60" t="n">
@@ -16712,10 +16712,10 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O61" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="BE61" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG61" t="n">
@@ -16935,10 +16935,10 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>50.38810729980469</v>
+        <v>50.3881072998047</v>
       </c>
       <c r="O62" t="n">
-        <v>-4.132400512695312</v>
+        <v>-4.13240051269531</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ62" t="n">
@@ -17244,7 +17244,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>51.49639892578125</v>
+        <v>51.4963989257813</v>
       </c>
       <c r="O63" t="n">
         <v>-0.122406005859375</v>
@@ -17324,7 +17324,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste</t>
         </is>
       </c>
       <c r="BJ63" t="n">
@@ -17578,10 +17578,10 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O64" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -17892,10 +17892,10 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>50.36799621582031</v>
+        <v>50.3679962158203</v>
       </c>
       <c r="O65" t="n">
-        <v>-4.132904052734375</v>
+        <v>-4.13290405273438</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
       </c>
       <c r="BE65" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options,Other, please specify below:</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options,Other, please specify below:</t>
         </is>
       </c>
       <c r="BF65" t="inlineStr">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,offer high quality grass-fed meat options,Other, please specify below:</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,offer high quality grass-fed meat options,Other, please specify below:</t>
         </is>
       </c>
       <c r="BI65" t="inlineStr">
@@ -18125,10 +18125,10 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>50.70179748535156</v>
+        <v>50.7017974853516</v>
       </c>
       <c r="O66" t="n">
-        <v>-3.534698486328125</v>
+        <v>-3.53469848632812</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="BE66" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG66" t="n">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain organically sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,meet all dietary requirements,should be enjoyed by pupils,offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BJ66" t="n">
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>33.19549560546875</v>
+        <v>33.1954956054687</v>
       </c>
       <c r="O67" t="n">
-        <v>-117.2862014770508</v>
+        <v>-117.286201477051</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -18415,12 +18415,12 @@
       </c>
       <c r="BE67" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,meet all dietary requirements,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BK67" t="inlineStr">
@@ -18629,7 +18629,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),contain locally sourced ingredients,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),contain locally sourced ingredients,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ68" t="n">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="BE70" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG70" t="n">
@@ -18864,7 +18864,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ70" t="n">
@@ -19473,7 +19473,7 @@
       </c>
       <c r="BE73" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,offer fruit only, or fruit-based puddings,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG73" t="n">
@@ -19481,7 +19481,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ73" t="n">
@@ -19680,7 +19680,7 @@
       </c>
       <c r="BE74" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer only high quality grass-fed meat options</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="BG74" t="n">
@@ -19688,7 +19688,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),minimise waste,contain locally sourced ingredients,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),minimise waste,contain locally sourced ingredients,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ74" t="n">
@@ -19926,10 +19926,10 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>51.61439514160156</v>
+        <v>51.6143951416016</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.3368072509765625</v>
+        <v>-0.336807250976562</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
       </c>
       <c r="BE77" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food, margarine, cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread, brown rice, or pasta for example)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday,are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits),offer added-sugar free days,offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="BG77" t="n">
@@ -20261,10 +20261,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>50.73739624023438</v>
+        <v>50.7373962402344</v>
       </c>
       <c r="O79" t="n">
-        <v>-3.470794677734375</v>
+        <v>-3.47079467773437</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy, for example),contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example),contain locally sourced ingredients,contain  seasonally sourced ingredients,are cooked from scratch in the school kitchen,should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="BJ79" t="n">
@@ -20644,17 +20644,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>offer mainly wholemeal carbohydrates (whole-grain bread</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>brown rice</t>
+          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -20664,7 +20664,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>margarine</t>
+          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -20674,71 +20674,71 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food</t>
+          <t>offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cakes and biscuits)</t>
+          <t>offer added-sugar free days</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>or pasta for example)</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>offer only high quality grass-fed meat options offer at least one portion of fresh fruit and vegetables everyday</t>
+          <t>offer fruit only</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>offer added-sugar free days</t>
+          <t>or fruit-based puddings</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>or pasta for example) offer at least one portion of fresh fruit and vegetables everyday</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>offer fruit only</t>
+          <t>please specify below:</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -20779,37 +20779,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>contain  seasonally sourced ingredients</t>
+          <t>minimise waste</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>for example)</t>
+          <t>should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>meet all dietary requirements</t>
+          <t>contain  seasonally sourced ingredients</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -20819,57 +20819,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>minimise waste</t>
+          <t>meet all dietary requirements</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>contain organically sourced ingredients</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>should be enjoyed by pupils reduce high-carbon &amp; water footprint foods (meat and dairy</t>
+          <t>contain organically sourced ingredients</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>should be enjoyed by pupils</t>
+          <t>offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>offer high quality grass-fed meat options reduce high-carbon &amp; water footprint foods (meat and dairy</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SurveyData/School_1b_2021.xlsx
+++ b/SurveyData/School_1b_2021.xlsx
@@ -9,6 +9,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20875,4 +20877,228 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Phrase</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Based on your previous definition of healthy school meals</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>how healthy would you rate the current school meal provision at school? 
+(Please use slide bar to indicate your rating: 1 lowest- 10 highest quality) - 1-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Phrase</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>It depends</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>please specify:</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Do meat-free days* sound like a good idea to you?
+*Days when school lunches (packed and served by caterers) at school offer plant-based protein alternatives and contain no meat content in an attempt to minimise impact on the environment - Selected Choice</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/SurveyData/School_1b_2021.xlsx
+++ b/SurveyData/School_1b_2021.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q36_TEXT_SUMMARY" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,18 +24,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -50,27 +44,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -89,12 +68,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -459,7 +436,7 @@
   </sheetPr>
   <dimension ref="A1:FC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2089,10 +2066,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44370.3709375</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>44370.37638888889</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -2116,7 +2093,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>44370.37641971065</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -2372,10 +2349,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44371.12006944444</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>44371.12686342592</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -2399,7 +2376,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <v>44371.12689293981</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -2706,10 +2683,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44371.13423611111</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>44371.13864583334</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -2733,7 +2710,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>44371.13866934027</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -2929,10 +2906,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44371.13341435185</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>44371.14457175926</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -2956,7 +2933,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>44371.14457603009</v>
       </c>
       <c r="I6" t="inlineStr">
@@ -3293,10 +3270,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44371.14311342593</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>44371.1502662037</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -3320,7 +3297,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3" t="n">
         <v>44371.15027075232</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -3617,10 +3594,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44371.14322916666</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>44371.15944444444</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -3644,7 +3621,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>44371.15946949074</v>
       </c>
       <c r="I8" t="inlineStr">
@@ -3981,10 +3958,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44371.17109953704</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>44371.17409722223</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -4008,7 +3985,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3" t="n">
         <v>44371.17412054398</v>
       </c>
       <c r="I9" t="inlineStr">
@@ -4194,10 +4171,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44371.1787962963</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>44371.18180555556</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -4221,7 +4198,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3" t="n">
         <v>44371.18181700232</v>
       </c>
       <c r="I10" t="inlineStr">
@@ -4422,10 +4399,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44371.18063657408</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>44371.18730324074</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -4449,7 +4426,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3" t="n">
         <v>44371.18733145834</v>
       </c>
       <c r="I11" t="inlineStr">
@@ -4751,10 +4728,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44371.21710648148</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>44371.22278935185</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -4778,7 +4755,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <v>44371.22281792824</v>
       </c>
       <c r="I12" t="inlineStr">
@@ -5115,10 +5092,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44371.23439814815</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>44371.24347222222</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -5142,7 +5119,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <v>44371.24349322917</v>
       </c>
       <c r="I13" t="inlineStr">
@@ -5464,10 +5441,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>44371.25651620371</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>44371.26634259259</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -5491,7 +5468,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3" t="n">
         <v>44371.26637239583</v>
       </c>
       <c r="I14" t="inlineStr">
@@ -5793,10 +5770,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>44371.32200231482</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>44371.32482638889</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -5820,7 +5797,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3" t="n">
         <v>44371.32485134259</v>
       </c>
       <c r="I15" t="inlineStr">
@@ -6001,10 +5978,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>44371.14905092592</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>44371.33362268518</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -6028,7 +6005,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>44371.33364380787</v>
       </c>
       <c r="I16" t="inlineStr">
@@ -6209,10 +6186,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>44371.37196759259</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>44371.38065972222</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -6236,7 +6213,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3" t="n">
         <v>44371.38068328704</v>
       </c>
       <c r="I17" t="inlineStr">
@@ -6557,10 +6534,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>44371.38182870371</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
         <v>44371.39181712963</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -6584,7 +6561,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3" t="n">
         <v>44371.39184461805</v>
       </c>
       <c r="I18" t="inlineStr">
@@ -6881,10 +6858,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>44371.44383101852</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>44371.45459490741</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -6908,7 +6885,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3" t="n">
         <v>44371.45461908565</v>
       </c>
       <c r="I19" t="inlineStr">
@@ -7220,10 +7197,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>44371.44953703704</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="3" t="n">
         <v>44371.46364583333</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -7247,7 +7224,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3" t="n">
         <v>44371.4636562963</v>
       </c>
       <c r="I20" t="inlineStr">
@@ -7619,10 +7596,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>44371.46517361111</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3" t="n">
         <v>44371.46880787037</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -7646,7 +7623,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3" t="n">
         <v>44371.46883006945</v>
       </c>
       <c r="I21" t="inlineStr">
@@ -7824,10 +7801,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>44371.4958449074</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3" t="n">
         <v>44371.49857638889</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -7851,7 +7828,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3" t="n">
         <v>44371.49858456018</v>
       </c>
       <c r="I22" t="inlineStr">
@@ -8022,10 +7999,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>44371.51751157407</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3" t="n">
         <v>44371.52211805555</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -8049,7 +8026,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3" t="n">
         <v>44371.52215493056</v>
       </c>
       <c r="I23" t="inlineStr">
@@ -8255,10 +8232,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>44371.53976851852</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>44371.54828703704</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -8282,7 +8259,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="3" t="n">
         <v>44371.54830822917</v>
       </c>
       <c r="I24" t="inlineStr">
@@ -8473,10 +8450,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>44372.00961805556</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3" t="n">
         <v>44372.01424768518</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -8500,7 +8477,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3" t="n">
         <v>44372.01427717593</v>
       </c>
       <c r="I25" t="inlineStr">
@@ -8696,10 +8673,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>44372.11569444444</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="3" t="n">
         <v>44372.12400462963</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -8723,7 +8700,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3" t="n">
         <v>44372.12402554398</v>
       </c>
       <c r="I26" t="inlineStr">
@@ -9015,10 +8992,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>44372.29756944445</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3" t="n">
         <v>44372.30229166667</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -9042,7 +9019,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="3" t="n">
         <v>44372.3023158912</v>
       </c>
       <c r="I27" t="inlineStr">
@@ -9213,10 +9190,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>44374.36357638889</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="3" t="n">
         <v>44374.3637037037</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -9240,7 +9217,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="3" t="n">
         <v>44374.36372729167</v>
       </c>
       <c r="I28" t="inlineStr">
@@ -9276,10 +9253,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>44374.99413194445</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="3" t="n">
         <v>44375.00784722222</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -9303,7 +9280,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="3" t="n">
         <v>44375.0078678588</v>
       </c>
       <c r="I29" t="inlineStr">
@@ -9600,10 +9577,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>44375.60261574074</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3" t="n">
         <v>44375.60280092592</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -9627,7 +9604,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="3" t="n">
         <v>44375.60281342592</v>
       </c>
       <c r="I30" t="inlineStr">
@@ -9663,10 +9640,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>44375.60290509259</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="3" t="n">
         <v>44375.6103125</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -9690,7 +9667,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="3" t="n">
         <v>44375.61032581019</v>
       </c>
       <c r="I31" t="inlineStr">
@@ -9998,10 +9975,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>44370.22986111111</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="3" t="n">
         <v>44370.23335648148</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -10025,7 +10002,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="3" t="n">
         <v>44377.23339609954</v>
       </c>
       <c r="I32" t="inlineStr">
@@ -10156,10 +10133,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>44377.32373842593</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3" t="n">
         <v>44377.33009259259</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -10183,7 +10160,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="3" t="n">
         <v>44377.33011693287</v>
       </c>
       <c r="I33" t="inlineStr">
@@ -10349,10 +10326,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>44370.32950231482</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="3" t="n">
         <v>44370.33399305555</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -10376,7 +10353,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="3" t="n">
         <v>44377.33401457176</v>
       </c>
       <c r="I34" t="inlineStr">
@@ -10498,10 +10475,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>44371.13844907407</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
         <v>44371.13856481481</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -10525,7 +10502,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="3" t="n">
         <v>44378.13858832176</v>
       </c>
       <c r="I35" t="inlineStr">
@@ -10555,10 +10532,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>44371.1415625</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="3" t="n">
         <v>44371.15038194445</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -10582,7 +10559,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="3" t="n">
         <v>44378.15041488426</v>
       </c>
       <c r="I36" t="inlineStr">
@@ -10873,10 +10850,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>44371.1368287037</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="3" t="n">
         <v>44371.16528935185</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -10900,7 +10877,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="3" t="n">
         <v>44378.16535601852</v>
       </c>
       <c r="I37" t="inlineStr">
@@ -11226,10 +11203,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>44371.18388888889</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="3" t="n">
         <v>44371.18445601852</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -11253,7 +11230,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="3" t="n">
         <v>44378.18448945602</v>
       </c>
       <c r="I38" t="inlineStr">
@@ -11313,10 +11290,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>44371.22855324074</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="3" t="n">
         <v>44371.23409722222</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -11340,7 +11317,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="3" t="n">
         <v>44378.23415131945</v>
       </c>
       <c r="I39" t="inlineStr">
@@ -11461,10 +11438,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>44371.29707175926</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="3" t="n">
         <v>44371.32730324074</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -11488,7 +11465,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="3" t="n">
         <v>44378.32732368055</v>
       </c>
       <c r="I40" t="inlineStr">
@@ -11743,10 +11720,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>44371.32989583333</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="3" t="n">
         <v>44371.33030092593</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -11770,7 +11747,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="3" t="n">
         <v>44378.33033016204</v>
       </c>
       <c r="I41" t="inlineStr">
@@ -11815,10 +11792,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>44371.53287037037</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="3" t="n">
         <v>44371.54096064815</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -11842,7 +11819,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3" t="n">
         <v>44378.54099548611</v>
       </c>
       <c r="I42" t="inlineStr">
@@ -12102,10 +12079,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>44371.55956018518</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="3" t="n">
         <v>44371.56451388889</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -12129,7 +12106,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="3" t="n">
         <v>44378.56458929398</v>
       </c>
       <c r="I43" t="inlineStr">
@@ -12379,10 +12356,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>44378.64079861111</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="3" t="n">
         <v>44378.65739583333</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -12406,7 +12383,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="3" t="n">
         <v>44378.65742072916</v>
       </c>
       <c r="I44" t="inlineStr">
@@ -12738,10 +12715,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>44372.22719907408</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="3" t="n">
         <v>44372.22990740741</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -12765,7 +12742,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="3" t="n">
         <v>44379.22998231481</v>
       </c>
       <c r="I45" t="inlineStr">
@@ -12921,10 +12898,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>44371.25266203703</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3" t="n">
         <v>44372.34789351852</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -12948,7 +12925,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="3" t="n">
         <v>44379.34793450232</v>
       </c>
       <c r="I46" t="inlineStr">
@@ -13249,10 +13226,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>44373.13783564815</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="3" t="n">
         <v>44373.13821759259</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -13276,7 +13253,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="3" t="n">
         <v>44380.1382775</v>
       </c>
       <c r="I47" t="inlineStr">
@@ -13306,10 +13283,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>44374.3637962963</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="3" t="n">
         <v>44374.36597222222</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -13333,7 +13310,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="3" t="n">
         <v>44381.36601002315</v>
       </c>
       <c r="I48" t="inlineStr">
@@ -13434,10 +13411,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>44376.49827546296</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="3" t="n">
         <v>44376.50217592593</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -13461,7 +13438,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="3" t="n">
         <v>44383.50220060186</v>
       </c>
       <c r="I49" t="inlineStr">
@@ -13636,10 +13613,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>44384.4378125</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="3" t="n">
         <v>44384.44861111111</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -13663,7 +13640,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="3" t="n">
         <v>44384.44863532407</v>
       </c>
       <c r="I50" t="inlineStr">
@@ -13965,10 +13942,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>44389.42909722222</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="3" t="n">
         <v>44389.43152777778</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -13992,7 +13969,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="3" t="n">
         <v>44389.4315487963</v>
       </c>
       <c r="I51" t="inlineStr">
@@ -14188,10 +14165,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>44382.54600694445</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="3" t="n">
         <v>44382.5469212963</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -14215,7 +14192,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="3" t="n">
         <v>44389.54694436343</v>
       </c>
       <c r="I52" t="inlineStr">
@@ -14295,10 +14272,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>44390.11457175926</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="3" t="n">
         <v>44390.11824074074</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -14322,7 +14299,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="3" t="n">
         <v>44390.11825503472</v>
       </c>
       <c r="I53" t="inlineStr">
@@ -14528,10 +14505,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>44390.11431712963</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="3" t="n">
         <v>44390.12174768518</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -14555,7 +14532,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="3" t="n">
         <v>44390.12175989583</v>
       </c>
       <c r="I54" t="inlineStr">
@@ -14856,10 +14833,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>44390.11465277777</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="3" t="n">
         <v>44390.12329861111</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -14883,7 +14860,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="3" t="n">
         <v>44390.12332240741</v>
       </c>
       <c r="I55" t="inlineStr">
@@ -15069,10 +15046,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>44390.11768518519</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="3" t="n">
         <v>44390.12341435185</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -15096,7 +15073,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="3" t="n">
         <v>44390.12342770833</v>
       </c>
       <c r="I56" t="inlineStr">
@@ -15287,10 +15264,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>44390.11378472222</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="3" t="n">
         <v>44390.12607638889</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -15314,7 +15291,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="3" t="n">
         <v>44390.12609587963</v>
       </c>
       <c r="I57" t="inlineStr">
@@ -15611,10 +15588,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>44390.11655092592</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="3" t="n">
         <v>44390.12751157407</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -15638,7 +15615,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="3" t="n">
         <v>44390.12753445602</v>
       </c>
       <c r="I58" t="inlineStr">
@@ -15960,10 +15937,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>44390.11658564815</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="3" t="n">
         <v>44390.12949074074</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -15987,7 +15964,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="3" t="n">
         <v>44390.12950694445</v>
       </c>
       <c r="I59" t="inlineStr">
@@ -16329,10 +16306,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>44390.11826388889</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="3" t="n">
         <v>44390.13089120371</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -16356,7 +16333,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="3" t="n">
         <v>44390.130915625</v>
       </c>
       <c r="I60" t="inlineStr">
@@ -16678,10 +16655,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>44390.11430555556</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="3" t="n">
         <v>44390.13347222222</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -16705,7 +16682,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="3" t="n">
         <v>44390.13348796296</v>
       </c>
       <c r="I61" t="inlineStr">
@@ -16901,10 +16878,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>44390.13732638889</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="3" t="n">
         <v>44390.14449074074</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -16928,7 +16905,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H62" s="2" t="n">
+      <c r="H62" s="3" t="n">
         <v>44390.14452079861</v>
       </c>
       <c r="I62" t="inlineStr">
@@ -17210,10 +17187,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>44390.17876157408</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="3" t="n">
         <v>44390.18896990741</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -17237,7 +17214,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="3" t="n">
         <v>44390.18899114583</v>
       </c>
       <c r="I63" t="inlineStr">
@@ -17544,10 +17521,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>44390.12168981481</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="3" t="n">
         <v>44390.3830787037</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -17571,7 +17548,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="3" t="n">
         <v>44390.3830825</v>
       </c>
       <c r="I64" t="inlineStr">
@@ -17858,10 +17835,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>44390.5834837963</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="3" t="n">
         <v>44390.59685185185</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -17885,7 +17862,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="3" t="n">
         <v>44390.59686270833</v>
       </c>
       <c r="I65" t="inlineStr">
@@ -18091,10 +18068,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>44390.62471064815</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="3" t="n">
         <v>44390.62958333334</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -18118,7 +18095,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="3" t="n">
         <v>44390.62960768519</v>
       </c>
       <c r="I66" t="inlineStr">
@@ -18304,10 +18281,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>44393.35092592592</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="3" t="n">
         <v>44393.35474537037</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -18331,7 +18308,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="3" t="n">
         <v>44393.35476770833</v>
       </c>
       <c r="I67" t="inlineStr">
@@ -18516,10 +18493,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>44390.11238425926</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="3" t="n">
         <v>44390.11464120371</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -18543,7 +18520,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="3" t="n">
         <v>44397.11467171296</v>
       </c>
       <c r="I68" t="inlineStr">
@@ -18674,10 +18651,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>44390.11599537037</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="3" t="n">
         <v>44390.1165625</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -18701,7 +18678,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H69" s="2" t="n">
+      <c r="H69" s="3" t="n">
         <v>44397.11658444445</v>
       </c>
       <c r="I69" t="inlineStr">
@@ -18741,10 +18718,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>44390.14782407408</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="3" t="n">
         <v>44390.15326388889</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -18768,7 +18745,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H70" s="2" t="n">
+      <c r="H70" s="3" t="n">
         <v>44397.15331564815</v>
       </c>
       <c r="I70" t="inlineStr">
@@ -19069,10 +19046,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>44390.16245370371</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="3" t="n">
         <v>44390.16271990741</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -19096,7 +19073,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H71" s="2" t="n">
+      <c r="H71" s="3" t="n">
         <v>44397.16275190972</v>
       </c>
       <c r="I71" t="inlineStr">
@@ -19141,10 +19118,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>44390.25101851852</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="3" t="n">
         <v>44390.26326388889</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -19168,7 +19145,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H72" s="2" t="n">
+      <c r="H72" s="3" t="n">
         <v>44397.26331313657</v>
       </c>
       <c r="I72" t="inlineStr">
@@ -19378,10 +19355,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>44390.35658564815</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="3" t="n">
         <v>44390.36005787037</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -19405,7 +19382,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H73" s="2" t="n">
+      <c r="H73" s="3" t="n">
         <v>44397.36008739583</v>
       </c>
       <c r="I73" t="inlineStr">
@@ -19565,10 +19542,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>44390.37746527778</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="3" t="n">
         <v>44390.38166666667</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -19592,7 +19569,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H74" s="2" t="n">
+      <c r="H74" s="3" t="n">
         <v>44397.38169113426</v>
       </c>
       <c r="I74" t="inlineStr">
@@ -19728,10 +19705,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>44390.51616898148</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="3" t="n">
         <v>44390.52104166667</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -19755,7 +19732,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H75" s="2" t="n">
+      <c r="H75" s="3" t="n">
         <v>44397.52106609954</v>
       </c>
       <c r="I75" t="inlineStr">
@@ -19835,10 +19812,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>44390.54605324074</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="3" t="n">
         <v>44390.54613425926</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -19862,7 +19839,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H76" s="3" t="n">
         <v>44397.54619219907</v>
       </c>
       <c r="I76" t="inlineStr">
@@ -19892,10 +19869,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>44398.24621527778</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="3" t="n">
         <v>44398.25607638889</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -19919,7 +19896,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H77" s="2" t="n">
+      <c r="H77" s="3" t="n">
         <v>44398.25610168982</v>
       </c>
       <c r="I77" t="inlineStr">
@@ -20115,10 +20092,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>44394.08078703703</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="3" t="n">
         <v>44394.08275462963</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -20142,7 +20119,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" s="3" t="n">
         <v>44401.08277914351</v>
       </c>
       <c r="I78" t="inlineStr">
@@ -20227,10 +20204,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>44409.10134259259</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="3" t="n">
         <v>44409.10724537037</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -20254,7 +20231,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H79" s="2" t="n">
+      <c r="H79" s="3" t="n">
         <v>44409.10726170139</v>
       </c>
       <c r="I79" t="inlineStr">
@@ -20556,10 +20533,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>44470.3546875</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="3" t="n">
         <v>44470.35855324074</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -20583,7 +20560,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H80" s="2" t="n">
+      <c r="H80" s="3" t="n">
         <v>44477.35860269676</v>
       </c>
       <c r="I80" t="inlineStr">
@@ -20613,7 +20590,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -20632,12 +20609,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -20763,12 +20740,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -20894,12 +20871,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -21026,12 +21003,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -21096,6 +21073,32 @@
       </c>
       <c r="B7" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Q36_SUMMARY</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/SurveyData/School_1b_2021.xlsx
+++ b/SurveyData/School_1b_2021.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q36_SENTIMENTS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Freq_Q28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Freq_Q30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="School_Meal_Rating_Q29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Meat_Free_Days_Q36" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20623,7 +20624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20634,113 +20635,48 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Phrase</t>
+          <t>Positive Responses</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>Frequency</t>
+          <t>Negative or Neutral Responses</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>60</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>I feel people should have the choice between meat and plant based not someone else choosing for them</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>33</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>My daughter is quite a picky eater at the moment so i dont think she would have school meals at all if the neals werent familiar and liked</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>29</v>
+          <t>On the food served on these days, has to be an attractive veggie option</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>offer only high quality grass-fed meat options</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24</v>
+          <t xml:space="preserve">Absolutely - this is vital! </t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>offer added-sugar free days</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>offer fruit only</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>or fruit-based puddings</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>please specify below:</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>As long as there is other variety on other days too.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -20777,101 +20713,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>contain locally sourced ingredients</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>minimise waste</t>
+          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>should be enjoyed by pupils</t>
+          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>contain  seasonally sourced ingredients</t>
+          <t>offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>are cooked from scratch in the school kitchen</t>
+          <t>offer added-sugar free days</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>meet all dietary requirements</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
+          <t>offer fruit only</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>contain organically sourced ingredients</t>
+          <t>or fruit-based puddings</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>offer high quality grass-fed meat options</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>please specify below:</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -20908,102 +20844,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>contain locally sourced ingredients</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>minimise waste</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>contain  seasonally sourced ingredients</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>are cooked from scratch in the school kitchen</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>meet all dietary requirements</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>contain organically sourced ingredients</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Based on your previous definition of healthy school meals</t>
+          <t>offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>how healthy would you rate the current school meal provision at school? 
-(Please use slide bar to indicate your rating: 1 lowest- 10 highest quality) - 1-10</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -21012,6 +20947,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Phrase</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Based on your previous definition of healthy school meals</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>how healthy would you rate the current school meal provision at school? 
+(Please use slide bar to indicate your rating: 1 lowest- 10 highest quality) - 1-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
